--- a/Financials/Yearly/SIEGY_YR_FIN.xlsx
+++ b/Financials/Yearly/SIEGY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71184CA0-C1F0-4D4D-97F5-3500FA16E4C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIEGY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43008</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42643</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42277</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41912</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41547</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41182</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40816</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>97483700</v>
+        <v>93174500</v>
       </c>
       <c r="E8" s="3">
-        <v>93486900</v>
+        <v>92971500</v>
       </c>
       <c r="F8" s="3">
-        <v>88782300</v>
+        <v>89359800</v>
       </c>
       <c r="G8" s="3">
-        <v>83607000</v>
+        <v>84862800</v>
       </c>
       <c r="H8" s="3">
-        <v>86210500</v>
+        <v>79916000</v>
       </c>
       <c r="I8" s="3">
-        <v>90847000</v>
+        <v>82404600</v>
       </c>
       <c r="J8" s="3">
+        <v>86836400</v>
+      </c>
+      <c r="K8" s="3">
         <v>86010900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>68105600</v>
+        <v>65278500</v>
       </c>
       <c r="E9" s="3">
-        <v>65529100</v>
+        <v>64873500</v>
       </c>
       <c r="F9" s="3">
-        <v>63138100</v>
+        <v>62636200</v>
       </c>
       <c r="G9" s="3">
-        <v>59710500</v>
+        <v>60350700</v>
       </c>
       <c r="H9" s="3">
-        <v>62575800</v>
+        <v>57074500</v>
       </c>
       <c r="I9" s="3">
-        <v>65111200</v>
+        <v>59813300</v>
       </c>
       <c r="J9" s="3">
+        <v>62236800</v>
+      </c>
+      <c r="K9" s="3">
         <v>59918300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29378100</v>
+        <v>27896000</v>
       </c>
       <c r="E10" s="3">
-        <v>27957800</v>
+        <v>28098000</v>
       </c>
       <c r="F10" s="3">
-        <v>25644200</v>
+        <v>26723600</v>
       </c>
       <c r="G10" s="3">
-        <v>23896400</v>
+        <v>24512100</v>
       </c>
       <c r="H10" s="3">
-        <v>23634700</v>
+        <v>22841500</v>
       </c>
       <c r="I10" s="3">
-        <v>25735800</v>
+        <v>22591300</v>
       </c>
       <c r="J10" s="3">
+        <v>24599600</v>
+      </c>
+      <c r="K10" s="3">
         <v>26092600</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6061600</v>
+        <v>6236000</v>
       </c>
       <c r="E12" s="3">
-        <v>5554500</v>
+        <v>5794000</v>
       </c>
       <c r="F12" s="3">
-        <v>5262200</v>
+        <v>5309300</v>
       </c>
       <c r="G12" s="3">
-        <v>4718700</v>
+        <v>5029900</v>
       </c>
       <c r="H12" s="3">
-        <v>4751600</v>
+        <v>4510400</v>
       </c>
       <c r="I12" s="3">
-        <v>4982800</v>
+        <v>4541800</v>
       </c>
       <c r="J12" s="3">
+        <v>4762800</v>
+      </c>
+      <c r="K12" s="3">
         <v>4576700</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,36 +903,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-201900</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>-191900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-193000</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>-93900</v>
-      </c>
       <c r="G14" s="3">
-        <v>-154900</v>
+        <v>-89800</v>
       </c>
       <c r="H14" s="3">
-        <v>125600</v>
+        <v>-148100</v>
       </c>
       <c r="I14" s="3">
-        <v>29300</v>
+        <v>120100</v>
       </c>
       <c r="J14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K14" s="3">
         <v>55200</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +963,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>88454800</v>
+        <v>86233900</v>
       </c>
       <c r="E17" s="3">
-        <v>84895800</v>
+        <v>84476900</v>
       </c>
       <c r="F17" s="3">
-        <v>81690100</v>
+        <v>81147900</v>
       </c>
       <c r="G17" s="3">
-        <v>75851600</v>
+        <v>78083800</v>
       </c>
       <c r="H17" s="3">
-        <v>80133700</v>
+        <v>72503000</v>
       </c>
       <c r="I17" s="3">
-        <v>82889800</v>
+        <v>76596000</v>
       </c>
       <c r="J17" s="3">
+        <v>79230400</v>
+      </c>
+      <c r="K17" s="3">
         <v>76365700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9028900</v>
+        <v>6940600</v>
       </c>
       <c r="E18" s="3">
-        <v>8591100</v>
+        <v>8494600</v>
       </c>
       <c r="F18" s="3">
-        <v>7092200</v>
+        <v>8211800</v>
       </c>
       <c r="G18" s="3">
-        <v>7755400</v>
+        <v>6779100</v>
       </c>
       <c r="H18" s="3">
-        <v>6076800</v>
+        <v>7413000</v>
       </c>
       <c r="I18" s="3">
-        <v>7957300</v>
+        <v>5808500</v>
       </c>
       <c r="J18" s="3">
+        <v>7606000</v>
+      </c>
+      <c r="K18" s="3">
         <v>9645200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1954400</v>
+        <v>3313200</v>
       </c>
       <c r="E20" s="3">
-        <v>1260700</v>
+        <v>1872600</v>
       </c>
       <c r="F20" s="3">
-        <v>2303000</v>
+        <v>1205000</v>
       </c>
       <c r="G20" s="3">
-        <v>2261900</v>
+        <v>2201300</v>
       </c>
       <c r="H20" s="3">
-        <v>1321700</v>
+        <v>2162100</v>
       </c>
       <c r="I20" s="3">
-        <v>1859300</v>
+        <v>1263400</v>
       </c>
       <c r="J20" s="3">
+        <v>1777200</v>
+      </c>
+      <c r="K20" s="3">
         <v>3647000</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14755000</v>
+        <v>14099200</v>
       </c>
       <c r="E21" s="3">
-        <v>13098400</v>
+        <v>13978600</v>
       </c>
       <c r="F21" s="3">
-        <v>12389300</v>
+        <v>12525500</v>
       </c>
       <c r="G21" s="3">
-        <v>12849300</v>
+        <v>11847200</v>
       </c>
       <c r="H21" s="3">
-        <v>10480700</v>
+        <v>12286700</v>
       </c>
       <c r="I21" s="3">
-        <v>13126600</v>
+        <v>10023100</v>
       </c>
       <c r="J21" s="3">
+        <v>12552600</v>
+      </c>
+      <c r="K21" s="3">
         <v>16154700</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1233700</v>
+        <v>1221800</v>
       </c>
       <c r="E22" s="3">
-        <v>1160900</v>
+        <v>1179200</v>
       </c>
       <c r="F22" s="3">
-        <v>922600</v>
+        <v>1109600</v>
       </c>
       <c r="G22" s="3">
-        <v>1441400</v>
+        <v>881900</v>
       </c>
       <c r="H22" s="3">
-        <v>575200</v>
+        <v>1377800</v>
       </c>
       <c r="I22" s="3">
-        <v>2027200</v>
+        <v>549800</v>
       </c>
       <c r="J22" s="3">
+        <v>1937700</v>
+      </c>
+      <c r="K22" s="3">
         <v>2014300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9749700</v>
+        <v>9032000</v>
       </c>
       <c r="E23" s="3">
-        <v>8690900</v>
+        <v>9188000</v>
       </c>
       <c r="F23" s="3">
-        <v>8472600</v>
+        <v>8307200</v>
       </c>
       <c r="G23" s="3">
-        <v>8575900</v>
+        <v>8098500</v>
       </c>
       <c r="H23" s="3">
-        <v>6823400</v>
+        <v>8197300</v>
       </c>
       <c r="I23" s="3">
-        <v>7789400</v>
+        <v>6522100</v>
       </c>
       <c r="J23" s="3">
+        <v>7445500</v>
+      </c>
+      <c r="K23" s="3">
         <v>11278000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2558900</v>
+        <v>2792600</v>
       </c>
       <c r="E24" s="3">
-        <v>2357000</v>
+        <v>2410000</v>
       </c>
       <c r="F24" s="3">
-        <v>2193900</v>
+        <v>2253000</v>
       </c>
       <c r="G24" s="3">
-        <v>2364100</v>
+        <v>2097000</v>
       </c>
       <c r="H24" s="3">
-        <v>1918000</v>
+        <v>2259700</v>
       </c>
       <c r="I24" s="3">
-        <v>2340600</v>
+        <v>1833300</v>
       </c>
       <c r="J24" s="3">
+        <v>2237200</v>
+      </c>
+      <c r="K24" s="3">
         <v>2619900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7190800</v>
+        <v>6239400</v>
       </c>
       <c r="E26" s="3">
-        <v>6333900</v>
+        <v>6777900</v>
       </c>
       <c r="F26" s="3">
-        <v>6278700</v>
+        <v>6054300</v>
       </c>
       <c r="G26" s="3">
-        <v>6211800</v>
+        <v>6001500</v>
       </c>
       <c r="H26" s="3">
-        <v>4905400</v>
+        <v>5937600</v>
       </c>
       <c r="I26" s="3">
-        <v>5448800</v>
+        <v>4688800</v>
       </c>
       <c r="J26" s="3">
+        <v>5208300</v>
+      </c>
+      <c r="K26" s="3">
         <v>8658000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7034600</v>
+        <v>5888200</v>
       </c>
       <c r="E27" s="3">
-        <v>6176600</v>
+        <v>6628700</v>
       </c>
       <c r="F27" s="3">
-        <v>6163700</v>
+        <v>5903900</v>
       </c>
       <c r="G27" s="3">
-        <v>6054500</v>
+        <v>5891600</v>
       </c>
       <c r="H27" s="3">
-        <v>4757500</v>
+        <v>5787200</v>
       </c>
       <c r="I27" s="3">
-        <v>5295100</v>
+        <v>4547400</v>
       </c>
       <c r="J27" s="3">
+        <v>5061300</v>
+      </c>
+      <c r="K27" s="3">
         <v>8451400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,36 +1318,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>62200</v>
+        <v>627200</v>
       </c>
       <c r="E29" s="3">
-        <v>220700</v>
+        <v>59500</v>
       </c>
       <c r="F29" s="3">
-        <v>2384000</v>
+        <v>210900</v>
       </c>
       <c r="G29" s="3">
-        <v>252400</v>
+        <v>2278800</v>
       </c>
       <c r="H29" s="3">
-        <v>271200</v>
+        <v>241200</v>
       </c>
       <c r="I29" s="3">
-        <v>-422600</v>
+        <v>259200</v>
       </c>
       <c r="J29" s="3">
+        <v>-403900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1238400</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1954400</v>
+        <v>-3313200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1260700</v>
+        <v>-1872600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2303000</v>
+        <v>-1205000</v>
       </c>
       <c r="G32" s="3">
-        <v>-2261900</v>
+        <v>-2201300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1321700</v>
+        <v>-2162100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1859300</v>
+        <v>-1263400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1777200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3647000</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7096900</v>
+        <v>6515400</v>
       </c>
       <c r="E33" s="3">
-        <v>6397300</v>
+        <v>6688200</v>
       </c>
       <c r="F33" s="3">
-        <v>8547700</v>
+        <v>6114800</v>
       </c>
       <c r="G33" s="3">
-        <v>6306900</v>
+        <v>8170300</v>
       </c>
       <c r="H33" s="3">
-        <v>5028600</v>
+        <v>6028500</v>
       </c>
       <c r="I33" s="3">
-        <v>4872500</v>
+        <v>4806600</v>
       </c>
       <c r="J33" s="3">
+        <v>4657400</v>
+      </c>
+      <c r="K33" s="3">
         <v>7213100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7096900</v>
+        <v>6515400</v>
       </c>
       <c r="E35" s="3">
-        <v>6397300</v>
+        <v>6688200</v>
       </c>
       <c r="F35" s="3">
-        <v>8547700</v>
+        <v>6114800</v>
       </c>
       <c r="G35" s="3">
-        <v>6306900</v>
+        <v>8170300</v>
       </c>
       <c r="H35" s="3">
-        <v>5028600</v>
+        <v>6028500</v>
       </c>
       <c r="I35" s="3">
-        <v>4872500</v>
+        <v>4806600</v>
       </c>
       <c r="J35" s="3">
+        <v>4657400</v>
+      </c>
+      <c r="K35" s="3">
         <v>7213100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43008</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42643</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42277</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41912</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41547</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41182</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40816</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9830700</v>
+        <v>12415900</v>
       </c>
       <c r="E41" s="3">
-        <v>12447100</v>
+        <v>9396700</v>
       </c>
       <c r="F41" s="3">
-        <v>11687600</v>
+        <v>11897600</v>
       </c>
       <c r="G41" s="3">
-        <v>9405700</v>
+        <v>11171700</v>
       </c>
       <c r="H41" s="3">
-        <v>10787300</v>
+        <v>8990500</v>
       </c>
       <c r="I41" s="3">
-        <v>12784000</v>
+        <v>10311100</v>
       </c>
       <c r="J41" s="3">
+        <v>12219600</v>
+      </c>
+      <c r="K41" s="3">
         <v>14635100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11802700</v>
+        <v>13365100</v>
       </c>
       <c r="E42" s="3">
-        <v>2846500</v>
+        <v>2682700</v>
       </c>
       <c r="F42" s="3">
-        <v>2786600</v>
+        <v>2720800</v>
       </c>
       <c r="G42" s="3">
-        <v>2425100</v>
+        <v>2663600</v>
       </c>
       <c r="H42" s="3">
-        <v>2077600</v>
+        <v>2318000</v>
       </c>
       <c r="I42" s="3">
-        <v>3371200</v>
+        <v>1985900</v>
       </c>
       <c r="J42" s="3">
+        <v>3222400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1922700</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>48122700</v>
+        <v>59684300</v>
       </c>
       <c r="E43" s="3">
-        <v>25808600</v>
+        <v>36595900</v>
       </c>
       <c r="F43" s="3">
-        <v>23187400</v>
+        <v>24669200</v>
       </c>
       <c r="G43" s="3">
-        <v>21035800</v>
+        <v>22163800</v>
       </c>
       <c r="H43" s="3">
-        <v>21161400</v>
+        <v>20504400</v>
       </c>
       <c r="I43" s="3">
-        <v>40306300</v>
+        <v>20603100</v>
       </c>
       <c r="J43" s="3">
+        <v>38915100</v>
+      </c>
+      <c r="K43" s="3">
         <v>19384300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39706500</v>
+        <v>31157700</v>
       </c>
       <c r="E44" s="3">
-        <v>21316400</v>
+        <v>24559200</v>
       </c>
       <c r="F44" s="3">
-        <v>20251700</v>
+        <v>20375300</v>
       </c>
       <c r="G44" s="3">
-        <v>17724500</v>
+        <v>19357700</v>
       </c>
       <c r="H44" s="3">
-        <v>18264500</v>
+        <v>16942000</v>
       </c>
       <c r="I44" s="3">
-        <v>18404200</v>
+        <v>17458200</v>
       </c>
       <c r="J44" s="3">
+        <v>17591700</v>
+      </c>
+      <c r="K44" s="3">
         <v>17775000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16115200</v>
+        <v>2686000</v>
       </c>
       <c r="E45" s="3">
-        <v>2527200</v>
+        <v>5551600</v>
       </c>
       <c r="F45" s="3">
-        <v>2469700</v>
+        <v>2415600</v>
       </c>
       <c r="G45" s="3">
-        <v>5840900</v>
+        <v>2360700</v>
       </c>
       <c r="H45" s="3">
-        <v>2804200</v>
+        <v>5185800</v>
       </c>
       <c r="I45" s="3">
-        <v>7379700</v>
+        <v>2304600</v>
       </c>
       <c r="J45" s="3">
+        <v>6665700</v>
+      </c>
+      <c r="K45" s="3">
         <v>7957300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>71309000</v>
+        <v>72431200</v>
       </c>
       <c r="E46" s="3">
-        <v>64945700</v>
+        <v>68160900</v>
       </c>
       <c r="F46" s="3">
-        <v>60383100</v>
+        <v>62078600</v>
       </c>
       <c r="G46" s="3">
-        <v>56432100</v>
+        <v>57717400</v>
       </c>
       <c r="H46" s="3">
-        <v>55095100</v>
+        <v>53940800</v>
       </c>
       <c r="I46" s="3">
-        <v>61188400</v>
+        <v>52662800</v>
       </c>
       <c r="J46" s="3">
+        <v>58487100</v>
+      </c>
+      <c r="K46" s="3">
         <v>61674300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45815000</v>
+        <v>41316200</v>
       </c>
       <c r="E47" s="3">
-        <v>25036200</v>
+        <v>22425200</v>
       </c>
       <c r="F47" s="3">
-        <v>25084300</v>
+        <v>23930900</v>
       </c>
       <c r="G47" s="3">
-        <v>21635700</v>
+        <v>23976900</v>
       </c>
       <c r="H47" s="3">
-        <v>19068500</v>
+        <v>20680500</v>
       </c>
       <c r="I47" s="3">
-        <v>33068600</v>
+        <v>18226700</v>
       </c>
       <c r="J47" s="3">
+        <v>31608700</v>
+      </c>
+      <c r="K47" s="3">
         <v>17217400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25769800</v>
+        <v>25538700</v>
       </c>
       <c r="E48" s="3">
-        <v>11922400</v>
+        <v>12316100</v>
       </c>
       <c r="F48" s="3">
-        <v>11984600</v>
+        <v>11396100</v>
       </c>
       <c r="G48" s="3">
-        <v>11313200</v>
+        <v>11455500</v>
       </c>
       <c r="H48" s="3">
-        <v>11520900</v>
-      </c>
-      <c r="I48" s="3" t="s">
+        <v>10813700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>11012300</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12298000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>91162800</v>
+        <v>86337100</v>
       </c>
       <c r="E49" s="3">
-        <v>37445700</v>
+        <v>43569100</v>
       </c>
       <c r="F49" s="3">
-        <v>36673300</v>
+        <v>35792600</v>
       </c>
       <c r="G49" s="3">
-        <v>26226400</v>
+        <v>35054300</v>
       </c>
       <c r="H49" s="3">
-        <v>26927200</v>
+        <v>25068600</v>
       </c>
       <c r="I49" s="3">
-        <v>50858800</v>
+        <v>25738500</v>
       </c>
       <c r="J49" s="3">
+        <v>48613600</v>
+      </c>
+      <c r="K49" s="3">
         <v>23652300</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6532300</v>
+        <v>6101400</v>
       </c>
       <c r="E52" s="3">
-        <v>8217800</v>
+        <v>6243900</v>
       </c>
       <c r="F52" s="3">
-        <v>7140300</v>
+        <v>7855100</v>
       </c>
       <c r="G52" s="3">
-        <v>7500600</v>
+        <v>6825100</v>
       </c>
       <c r="H52" s="3">
-        <v>7041700</v>
+        <v>7169500</v>
       </c>
       <c r="I52" s="3">
-        <v>8676800</v>
+        <v>6730800</v>
       </c>
       <c r="J52" s="3">
+        <v>8293800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7519400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>159769000</v>
+        <v>155861000</v>
       </c>
       <c r="E54" s="3">
-        <v>147568000</v>
+        <v>152715000</v>
       </c>
       <c r="F54" s="3">
-        <v>141266000</v>
+        <v>141053000</v>
       </c>
       <c r="G54" s="3">
-        <v>123108000</v>
+        <v>135029000</v>
       </c>
       <c r="H54" s="3">
-        <v>119654000</v>
+        <v>117673000</v>
       </c>
       <c r="I54" s="3">
-        <v>127066000</v>
+        <v>114371000</v>
       </c>
       <c r="J54" s="3">
+        <v>121457000</v>
+      </c>
+      <c r="K54" s="3">
         <v>122362000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11451700</v>
+        <v>12023200</v>
       </c>
       <c r="E57" s="3">
-        <v>9446800</v>
+        <v>10946100</v>
       </c>
       <c r="F57" s="3">
-        <v>9125200</v>
+        <v>9029800</v>
       </c>
       <c r="G57" s="3">
-        <v>8913900</v>
+        <v>8722400</v>
       </c>
       <c r="H57" s="3">
-        <v>8919800</v>
+        <v>8520400</v>
       </c>
       <c r="I57" s="3">
-        <v>9432700</v>
+        <v>8526000</v>
       </c>
       <c r="J57" s="3">
+        <v>9016300</v>
+      </c>
+      <c r="K57" s="3">
         <v>9011300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12787500</v>
+        <v>11347800</v>
       </c>
       <c r="E58" s="3">
-        <v>7284700</v>
+        <v>6111500</v>
       </c>
       <c r="F58" s="3">
-        <v>3496800</v>
+        <v>6963100</v>
       </c>
       <c r="G58" s="3">
-        <v>1901600</v>
+        <v>3342400</v>
       </c>
       <c r="H58" s="3">
-        <v>2281900</v>
+        <v>1817600</v>
       </c>
       <c r="I58" s="3">
-        <v>8982000</v>
+        <v>2181100</v>
       </c>
       <c r="J58" s="3">
+        <v>8585500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4296100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59773900</v>
+        <v>46247300</v>
       </c>
       <c r="E59" s="3">
-        <v>33643700</v>
+        <v>46151900</v>
       </c>
       <c r="F59" s="3">
-        <v>33816300</v>
+        <v>32158500</v>
       </c>
       <c r="G59" s="3">
-        <v>32143600</v>
+        <v>32323400</v>
       </c>
       <c r="H59" s="3">
-        <v>33248200</v>
+        <v>30724600</v>
       </c>
       <c r="I59" s="3">
-        <v>64248500</v>
+        <v>31780400</v>
       </c>
       <c r="J59" s="3">
+        <v>61412100</v>
+      </c>
+      <c r="K59" s="3">
         <v>38177000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54085600</v>
+        <v>53714100</v>
       </c>
       <c r="E60" s="3">
-        <v>50375200</v>
+        <v>51697900</v>
       </c>
       <c r="F60" s="3">
-        <v>46438300</v>
+        <v>48151300</v>
       </c>
       <c r="G60" s="3">
-        <v>42959100</v>
+        <v>44388200</v>
       </c>
       <c r="H60" s="3">
-        <v>44449800</v>
+        <v>41062600</v>
       </c>
       <c r="I60" s="3">
-        <v>50036000</v>
+        <v>42487500</v>
       </c>
       <c r="J60" s="3">
+        <v>47827100</v>
+      </c>
+      <c r="K60" s="3">
         <v>51131200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32489900</v>
+        <v>30428400</v>
       </c>
       <c r="E61" s="3">
-        <v>30405200</v>
+        <v>30043500</v>
       </c>
       <c r="F61" s="3">
-        <v>33040400</v>
+        <v>29062900</v>
       </c>
       <c r="G61" s="3">
-        <v>24586600</v>
+        <v>31581800</v>
       </c>
       <c r="H61" s="3">
-        <v>21726000</v>
+        <v>21683600</v>
       </c>
       <c r="I61" s="3">
-        <v>21085100</v>
+        <v>20766900</v>
       </c>
       <c r="J61" s="3">
+        <v>18939200</v>
+      </c>
+      <c r="K61" s="3">
         <v>16762000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26192400</v>
+        <v>22541900</v>
       </c>
       <c r="E62" s="3">
-        <v>25920100</v>
+        <v>20910500</v>
       </c>
       <c r="F62" s="3">
-        <v>20637900</v>
+        <v>24775800</v>
       </c>
       <c r="G62" s="3">
-        <v>18570800</v>
+        <v>19726800</v>
       </c>
       <c r="H62" s="3">
-        <v>19877300</v>
+        <v>19568600</v>
       </c>
       <c r="I62" s="3">
-        <v>24917600</v>
+        <v>18999800</v>
       </c>
       <c r="J62" s="3">
+        <v>23817600</v>
+      </c>
+      <c r="K62" s="3">
         <v>17001500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>109082000</v>
+        <v>104841000</v>
       </c>
       <c r="E66" s="3">
-        <v>107411000</v>
+        <v>104267000</v>
       </c>
       <c r="F66" s="3">
-        <v>100799000</v>
+        <v>102669000</v>
       </c>
       <c r="G66" s="3">
-        <v>86773900</v>
+        <v>96348600</v>
       </c>
       <c r="H66" s="3">
-        <v>86656500</v>
+        <v>82943100</v>
       </c>
       <c r="I66" s="3">
-        <v>90848200</v>
+        <v>82830900</v>
       </c>
       <c r="J66" s="3">
+        <v>86837500</v>
+      </c>
+      <c r="K66" s="3">
         <v>85351200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42015400</v>
+        <v>46017300</v>
       </c>
       <c r="E72" s="3">
-        <v>32225800</v>
+        <v>40160500</v>
       </c>
       <c r="F72" s="3">
-        <v>35392700</v>
+        <v>30803100</v>
       </c>
       <c r="G72" s="3">
-        <v>30201000</v>
+        <v>33830200</v>
       </c>
       <c r="H72" s="3">
-        <v>26602100</v>
+        <v>28867700</v>
       </c>
       <c r="I72" s="3">
-        <v>26853300</v>
+        <v>25427700</v>
       </c>
       <c r="J72" s="3">
+        <v>25667800</v>
+      </c>
+      <c r="K72" s="3">
         <v>30379400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50686300</v>
+        <v>51020300</v>
       </c>
       <c r="E76" s="3">
-        <v>40157200</v>
+        <v>48448700</v>
       </c>
       <c r="F76" s="3">
-        <v>40467100</v>
+        <v>38384400</v>
       </c>
       <c r="G76" s="3">
-        <v>36334100</v>
+        <v>38680600</v>
       </c>
       <c r="H76" s="3">
-        <v>32997000</v>
+        <v>34730100</v>
       </c>
       <c r="I76" s="3">
-        <v>36217900</v>
+        <v>31539100</v>
       </c>
       <c r="J76" s="3">
+        <v>34619000</v>
+      </c>
+      <c r="K76" s="3">
         <v>37010200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43008</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42643</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42277</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41912</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41547</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41182</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40816</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7096900</v>
+        <v>6515400</v>
       </c>
       <c r="E81" s="3">
-        <v>6397300</v>
+        <v>6688200</v>
       </c>
       <c r="F81" s="3">
-        <v>8547700</v>
+        <v>6114800</v>
       </c>
       <c r="G81" s="3">
-        <v>6306900</v>
+        <v>8170300</v>
       </c>
       <c r="H81" s="3">
-        <v>5028600</v>
+        <v>6028500</v>
       </c>
       <c r="I81" s="3">
-        <v>4872500</v>
+        <v>4806600</v>
       </c>
       <c r="J81" s="3">
+        <v>4657400</v>
+      </c>
+      <c r="K81" s="3">
         <v>7213100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3769100</v>
+        <v>3836100</v>
       </c>
       <c r="E83" s="3">
-        <v>3244400</v>
+        <v>3602700</v>
       </c>
       <c r="F83" s="3">
-        <v>2992000</v>
+        <v>3101200</v>
       </c>
       <c r="G83" s="3">
-        <v>2830100</v>
+        <v>2860000</v>
       </c>
       <c r="H83" s="3">
-        <v>3080100</v>
+        <v>2705100</v>
       </c>
       <c r="I83" s="3">
-        <v>3307800</v>
+        <v>2944100</v>
       </c>
       <c r="J83" s="3">
+        <v>3161800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2860600</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8423300</v>
+        <v>9453900</v>
       </c>
       <c r="E89" s="3">
-        <v>8933900</v>
+        <v>8051400</v>
       </c>
       <c r="F89" s="3">
-        <v>7760100</v>
+        <v>8539500</v>
       </c>
       <c r="G89" s="3">
-        <v>8334100</v>
+        <v>7417500</v>
       </c>
       <c r="H89" s="3">
-        <v>8055900</v>
+        <v>7966100</v>
       </c>
       <c r="I89" s="3">
-        <v>8347000</v>
+        <v>7700200</v>
       </c>
       <c r="J89" s="3">
+        <v>7978500</v>
+      </c>
+      <c r="K89" s="3">
         <v>9117000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2824200</v>
+        <v>-2919400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2506100</v>
+        <v>-2699500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2226700</v>
+        <v>-2395400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2149200</v>
+        <v>-2128400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2193900</v>
+        <v>-2054400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2576500</v>
+        <v>-2097000</v>
       </c>
       <c r="J91" s="3">
+        <v>-2462800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2539000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8753100</v>
+        <v>-4234400</v>
       </c>
       <c r="E94" s="3">
-        <v>-4864300</v>
+        <v>-8366700</v>
       </c>
       <c r="F94" s="3">
-        <v>-6839800</v>
+        <v>-4649500</v>
       </c>
       <c r="G94" s="3">
-        <v>-4725800</v>
+        <v>-6537800</v>
       </c>
       <c r="H94" s="3">
-        <v>-5958300</v>
+        <v>-4517100</v>
       </c>
       <c r="I94" s="3">
-        <v>-6673100</v>
+        <v>-5695200</v>
       </c>
       <c r="J94" s="3">
+        <v>-6378500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4746900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3420500</v>
+        <v>-3378300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3318400</v>
+        <v>-3269500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3202200</v>
+        <v>-3171900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2973300</v>
+        <v>-3060800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2967400</v>
+        <v>-2842000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3085900</v>
+        <v>-2836400</v>
       </c>
       <c r="J96" s="3">
+        <v>-2949700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2765500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1831100</v>
+        <v>-2183400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3181000</v>
+        <v>-1750300</v>
       </c>
       <c r="F100" s="3">
-        <v>1239500</v>
+        <v>-3040600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5266900</v>
+        <v>1184800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3986300</v>
+        <v>-5034400</v>
       </c>
       <c r="I100" s="3">
-        <v>-3586000</v>
+        <v>-3810300</v>
       </c>
       <c r="J100" s="3">
+        <v>-3427700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6389000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-454300</v>
+        <v>-32500</v>
       </c>
       <c r="E101" s="3">
-        <v>-115000</v>
+        <v>-434200</v>
       </c>
       <c r="F101" s="3">
-        <v>97400</v>
+        <v>-110000</v>
       </c>
       <c r="G101" s="3">
-        <v>251200</v>
+        <v>93100</v>
       </c>
       <c r="H101" s="3">
-        <v>-126800</v>
+        <v>240100</v>
       </c>
       <c r="I101" s="3">
-        <v>79800</v>
+        <v>-121200</v>
       </c>
       <c r="J101" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2615200</v>
+        <v>3003600</v>
       </c>
       <c r="E102" s="3">
-        <v>773500</v>
+        <v>-2499800</v>
       </c>
       <c r="F102" s="3">
-        <v>2257200</v>
+        <v>739400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1407400</v>
+        <v>2157600</v>
       </c>
       <c r="H102" s="3">
-        <v>-2015400</v>
+        <v>-1345300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1832300</v>
+        <v>-1926500</v>
       </c>
       <c r="J102" s="3">
+        <v>-1751400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2013100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/SIEGY_YR_FIN.xlsx
+++ b/Financials/Yearly/SIEGY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71184CA0-C1F0-4D4D-97F5-3500FA16E4C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SIEGY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,152 +654,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42643</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42277</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41912</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41547</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41182</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40816</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>93174500</v>
+        <v>95360200</v>
       </c>
       <c r="E8" s="3">
-        <v>92971500</v>
+        <v>91182300</v>
       </c>
       <c r="F8" s="3">
-        <v>89359800</v>
+        <v>90983600</v>
       </c>
       <c r="G8" s="3">
-        <v>84862800</v>
+        <v>87449100</v>
       </c>
       <c r="H8" s="3">
-        <v>79916000</v>
+        <v>83048300</v>
       </c>
       <c r="I8" s="3">
-        <v>82404600</v>
+        <v>78207200</v>
       </c>
       <c r="J8" s="3">
+        <v>80642600</v>
+      </c>
+      <c r="K8" s="3">
         <v>86836400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>86010900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>65278500</v>
+        <v>66892400</v>
       </c>
       <c r="E9" s="3">
-        <v>64873500</v>
+        <v>63882700</v>
       </c>
       <c r="F9" s="3">
-        <v>62636200</v>
+        <v>63486400</v>
       </c>
       <c r="G9" s="3">
-        <v>60350700</v>
+        <v>61296900</v>
       </c>
       <c r="H9" s="3">
-        <v>57074500</v>
+        <v>59060300</v>
       </c>
       <c r="I9" s="3">
-        <v>59813300</v>
+        <v>55854200</v>
       </c>
       <c r="J9" s="3">
+        <v>58534400</v>
+      </c>
+      <c r="K9" s="3">
         <v>62236800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59918300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27896000</v>
+        <v>28467800</v>
       </c>
       <c r="E10" s="3">
-        <v>28098000</v>
+        <v>27299600</v>
       </c>
       <c r="F10" s="3">
-        <v>26723600</v>
+        <v>27497200</v>
       </c>
       <c r="G10" s="3">
-        <v>24512100</v>
+        <v>26152200</v>
       </c>
       <c r="H10" s="3">
-        <v>22841500</v>
+        <v>23988000</v>
       </c>
       <c r="I10" s="3">
-        <v>22591300</v>
+        <v>22353100</v>
       </c>
       <c r="J10" s="3">
+        <v>22108200</v>
+      </c>
+      <c r="K10" s="3">
         <v>24599600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26092600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6236000</v>
+        <v>6225700</v>
       </c>
       <c r="E12" s="3">
-        <v>5794000</v>
+        <v>6102700</v>
       </c>
       <c r="F12" s="3">
-        <v>5309300</v>
+        <v>5670100</v>
       </c>
       <c r="G12" s="3">
-        <v>5029900</v>
+        <v>5195700</v>
       </c>
       <c r="H12" s="3">
-        <v>4510400</v>
+        <v>4922300</v>
       </c>
       <c r="I12" s="3">
-        <v>4541800</v>
+        <v>4414000</v>
       </c>
       <c r="J12" s="3">
+        <v>4444700</v>
+      </c>
+      <c r="K12" s="3">
         <v>4762800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4576700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-191900</v>
+        <v>-54900</v>
       </c>
       <c r="E14" s="3">
-        <v>-193000</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>-187800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-188900</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>-89800</v>
-      </c>
       <c r="H14" s="3">
-        <v>-148100</v>
+        <v>-87800</v>
       </c>
       <c r="I14" s="3">
-        <v>120100</v>
+        <v>-144900</v>
       </c>
       <c r="J14" s="3">
+        <v>117500</v>
+      </c>
+      <c r="K14" s="3">
         <v>28000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -966,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -978,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86233900</v>
+        <v>87797200</v>
       </c>
       <c r="E17" s="3">
-        <v>84476900</v>
+        <v>84390100</v>
       </c>
       <c r="F17" s="3">
-        <v>81147900</v>
+        <v>82670600</v>
       </c>
       <c r="G17" s="3">
-        <v>78083800</v>
+        <v>79412900</v>
       </c>
       <c r="H17" s="3">
-        <v>72503000</v>
+        <v>76414200</v>
       </c>
       <c r="I17" s="3">
-        <v>76596000</v>
+        <v>70952800</v>
       </c>
       <c r="J17" s="3">
+        <v>74958300</v>
+      </c>
+      <c r="K17" s="3">
         <v>79230400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76365700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6940600</v>
+        <v>7563000</v>
       </c>
       <c r="E18" s="3">
-        <v>8494600</v>
+        <v>6792200</v>
       </c>
       <c r="F18" s="3">
-        <v>8211800</v>
+        <v>8313000</v>
       </c>
       <c r="G18" s="3">
-        <v>6779100</v>
+        <v>8036300</v>
       </c>
       <c r="H18" s="3">
-        <v>7413000</v>
+        <v>6634100</v>
       </c>
       <c r="I18" s="3">
-        <v>5808500</v>
+        <v>7254500</v>
       </c>
       <c r="J18" s="3">
+        <v>5684300</v>
+      </c>
+      <c r="K18" s="3">
         <v>7606000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9645200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3313200</v>
+        <v>1918200</v>
       </c>
       <c r="E20" s="3">
-        <v>1872600</v>
+        <v>3242400</v>
       </c>
       <c r="F20" s="3">
-        <v>1205000</v>
+        <v>1832600</v>
       </c>
       <c r="G20" s="3">
-        <v>2201300</v>
+        <v>1179300</v>
       </c>
       <c r="H20" s="3">
-        <v>2162100</v>
+        <v>2154300</v>
       </c>
       <c r="I20" s="3">
-        <v>1263400</v>
+        <v>2115800</v>
       </c>
       <c r="J20" s="3">
+        <v>1236300</v>
+      </c>
+      <c r="K20" s="3">
         <v>1777200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3647000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14099200</v>
+        <v>13323600</v>
       </c>
       <c r="E21" s="3">
-        <v>13978600</v>
+        <v>13794500</v>
       </c>
       <c r="F21" s="3">
-        <v>12525500</v>
+        <v>13676700</v>
       </c>
       <c r="G21" s="3">
-        <v>11847200</v>
+        <v>12255100</v>
       </c>
       <c r="H21" s="3">
-        <v>12286700</v>
+        <v>11591500</v>
       </c>
       <c r="I21" s="3">
-        <v>10023100</v>
+        <v>12021700</v>
       </c>
       <c r="J21" s="3">
+        <v>9806300</v>
+      </c>
+      <c r="K21" s="3">
         <v>12552600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16154700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1221800</v>
+        <v>1226500</v>
       </c>
       <c r="E22" s="3">
-        <v>1179200</v>
+        <v>1195700</v>
       </c>
       <c r="F22" s="3">
-        <v>1109600</v>
+        <v>1154000</v>
       </c>
       <c r="G22" s="3">
-        <v>881900</v>
+        <v>1085900</v>
       </c>
       <c r="H22" s="3">
-        <v>1377800</v>
+        <v>863000</v>
       </c>
       <c r="I22" s="3">
-        <v>549800</v>
+        <v>1348300</v>
       </c>
       <c r="J22" s="3">
+        <v>538000</v>
+      </c>
+      <c r="K22" s="3">
         <v>1937700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2014300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9032000</v>
+        <v>8254800</v>
       </c>
       <c r="E23" s="3">
-        <v>9188000</v>
+        <v>8838900</v>
       </c>
       <c r="F23" s="3">
-        <v>8307200</v>
+        <v>8991500</v>
       </c>
       <c r="G23" s="3">
-        <v>8098500</v>
+        <v>8129600</v>
       </c>
       <c r="H23" s="3">
-        <v>8197300</v>
+        <v>7925400</v>
       </c>
       <c r="I23" s="3">
-        <v>6522100</v>
+        <v>8022000</v>
       </c>
       <c r="J23" s="3">
+        <v>6382700</v>
+      </c>
+      <c r="K23" s="3">
         <v>7445500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11278000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2792600</v>
+        <v>2055500</v>
       </c>
       <c r="E24" s="3">
-        <v>2410000</v>
+        <v>2732900</v>
       </c>
       <c r="F24" s="3">
-        <v>2253000</v>
+        <v>2358500</v>
       </c>
       <c r="G24" s="3">
-        <v>2097000</v>
+        <v>2204800</v>
       </c>
       <c r="H24" s="3">
-        <v>2259700</v>
+        <v>2052200</v>
       </c>
       <c r="I24" s="3">
-        <v>1833300</v>
+        <v>2211400</v>
       </c>
       <c r="J24" s="3">
+        <v>1794100</v>
+      </c>
+      <c r="K24" s="3">
         <v>2237200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2619900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6239400</v>
+        <v>6199300</v>
       </c>
       <c r="E26" s="3">
-        <v>6777900</v>
+        <v>6106000</v>
       </c>
       <c r="F26" s="3">
-        <v>6054300</v>
+        <v>6633000</v>
       </c>
       <c r="G26" s="3">
-        <v>6001500</v>
+        <v>5924800</v>
       </c>
       <c r="H26" s="3">
-        <v>5937600</v>
+        <v>5873200</v>
       </c>
       <c r="I26" s="3">
-        <v>4688800</v>
+        <v>5810600</v>
       </c>
       <c r="J26" s="3">
+        <v>4588500</v>
+      </c>
+      <c r="K26" s="3">
         <v>5208300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8658000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5888200</v>
+        <v>5677800</v>
       </c>
       <c r="E27" s="3">
-        <v>6628700</v>
+        <v>5762300</v>
       </c>
       <c r="F27" s="3">
-        <v>5903900</v>
+        <v>6487000</v>
       </c>
       <c r="G27" s="3">
-        <v>5891600</v>
+        <v>5777700</v>
       </c>
       <c r="H27" s="3">
-        <v>5787200</v>
+        <v>5765600</v>
       </c>
       <c r="I27" s="3">
-        <v>4547400</v>
+        <v>5663500</v>
       </c>
       <c r="J27" s="3">
+        <v>4450200</v>
+      </c>
+      <c r="K27" s="3">
         <v>5061300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8451400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1321,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>627200</v>
+        <v>3300</v>
       </c>
       <c r="E29" s="3">
-        <v>59500</v>
+        <v>613800</v>
       </c>
       <c r="F29" s="3">
-        <v>210900</v>
+        <v>58200</v>
       </c>
       <c r="G29" s="3">
-        <v>2278800</v>
+        <v>206400</v>
       </c>
       <c r="H29" s="3">
-        <v>241200</v>
+        <v>2230000</v>
       </c>
       <c r="I29" s="3">
-        <v>259200</v>
+        <v>236100</v>
       </c>
       <c r="J29" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-403900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1238400</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1381,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1411,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3313200</v>
+        <v>-1918200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1872600</v>
+        <v>-3242400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1205000</v>
+        <v>-1832600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2201300</v>
+        <v>-1179300</v>
       </c>
       <c r="H32" s="3">
-        <v>-2162100</v>
+        <v>-2154300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1263400</v>
+        <v>-2115800</v>
       </c>
       <c r="J32" s="3">
+        <v>-1236300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1777200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3647000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6515400</v>
+        <v>5681100</v>
       </c>
       <c r="E33" s="3">
-        <v>6688200</v>
+        <v>6376100</v>
       </c>
       <c r="F33" s="3">
-        <v>6114800</v>
+        <v>6545200</v>
       </c>
       <c r="G33" s="3">
-        <v>8170300</v>
+        <v>5984100</v>
       </c>
       <c r="H33" s="3">
-        <v>6028500</v>
+        <v>7995600</v>
       </c>
       <c r="I33" s="3">
-        <v>4806600</v>
+        <v>5899600</v>
       </c>
       <c r="J33" s="3">
+        <v>4703800</v>
+      </c>
+      <c r="K33" s="3">
         <v>4657400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7213100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1501,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6515400</v>
+        <v>5681100</v>
       </c>
       <c r="E35" s="3">
-        <v>6688200</v>
+        <v>6376100</v>
       </c>
       <c r="F35" s="3">
-        <v>6114800</v>
+        <v>6545200</v>
       </c>
       <c r="G35" s="3">
-        <v>8170300</v>
+        <v>5984100</v>
       </c>
       <c r="H35" s="3">
-        <v>6028500</v>
+        <v>7995600</v>
       </c>
       <c r="I35" s="3">
-        <v>4806600</v>
+        <v>5899600</v>
       </c>
       <c r="J35" s="3">
+        <v>4703800</v>
+      </c>
+      <c r="K35" s="3">
         <v>4657400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7213100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42643</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42277</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41912</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41547</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41182</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40816</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1581,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1595,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12415900</v>
+        <v>13605300</v>
       </c>
       <c r="E41" s="3">
-        <v>9396700</v>
+        <v>12150500</v>
       </c>
       <c r="F41" s="3">
-        <v>11897600</v>
+        <v>9195800</v>
       </c>
       <c r="G41" s="3">
-        <v>11171700</v>
+        <v>11643200</v>
       </c>
       <c r="H41" s="3">
-        <v>8990500</v>
+        <v>10932800</v>
       </c>
       <c r="I41" s="3">
-        <v>10311100</v>
+        <v>8798300</v>
       </c>
       <c r="J41" s="3">
+        <v>10090600</v>
+      </c>
+      <c r="K41" s="3">
         <v>12219600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14635100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13365100</v>
+        <v>2197100</v>
       </c>
       <c r="E42" s="3">
-        <v>2682700</v>
+        <v>3575100</v>
       </c>
       <c r="F42" s="3">
-        <v>2720800</v>
+        <v>2625300</v>
       </c>
       <c r="G42" s="3">
-        <v>2663600</v>
+        <v>2662700</v>
       </c>
       <c r="H42" s="3">
-        <v>2318000</v>
+        <v>2606700</v>
       </c>
       <c r="I42" s="3">
-        <v>1985900</v>
+        <v>2268500</v>
       </c>
       <c r="J42" s="3">
+        <v>1943500</v>
+      </c>
+      <c r="K42" s="3">
         <v>3222400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1922700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59684300</v>
+        <v>41942500</v>
       </c>
       <c r="E43" s="3">
-        <v>36595900</v>
+        <v>38693500</v>
       </c>
       <c r="F43" s="3">
-        <v>24669200</v>
+        <v>35813500</v>
       </c>
       <c r="G43" s="3">
-        <v>22163800</v>
+        <v>24141700</v>
       </c>
       <c r="H43" s="3">
-        <v>20504400</v>
+        <v>21689900</v>
       </c>
       <c r="I43" s="3">
-        <v>20603100</v>
+        <v>20066000</v>
       </c>
       <c r="J43" s="3">
+        <v>20162600</v>
+      </c>
+      <c r="K43" s="3">
         <v>38915100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19384300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>31157700</v>
+        <v>16257000</v>
       </c>
       <c r="E44" s="3">
-        <v>24559200</v>
+        <v>15245700</v>
       </c>
       <c r="F44" s="3">
-        <v>20375300</v>
+        <v>24034100</v>
       </c>
       <c r="G44" s="3">
-        <v>19357700</v>
+        <v>19939700</v>
       </c>
       <c r="H44" s="3">
-        <v>16942000</v>
+        <v>18943800</v>
       </c>
       <c r="I44" s="3">
-        <v>17458200</v>
+        <v>16579800</v>
       </c>
       <c r="J44" s="3">
+        <v>17084900</v>
+      </c>
+      <c r="K44" s="3">
         <v>17591700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17775000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2686000</v>
+        <v>3264400</v>
       </c>
       <c r="E45" s="3">
-        <v>5551600</v>
+        <v>2628600</v>
       </c>
       <c r="F45" s="3">
-        <v>2415600</v>
+        <v>5432900</v>
       </c>
       <c r="G45" s="3">
-        <v>2360700</v>
+        <v>2364000</v>
       </c>
       <c r="H45" s="3">
-        <v>5185800</v>
+        <v>2310200</v>
       </c>
       <c r="I45" s="3">
-        <v>2304600</v>
+        <v>5075000</v>
       </c>
       <c r="J45" s="3">
+        <v>2255300</v>
+      </c>
+      <c r="K45" s="3">
         <v>6665700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7957300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>72431200</v>
+        <v>77266300</v>
       </c>
       <c r="E46" s="3">
-        <v>68160900</v>
+        <v>70882500</v>
       </c>
       <c r="F46" s="3">
-        <v>62078600</v>
+        <v>66703500</v>
       </c>
       <c r="G46" s="3">
-        <v>57717400</v>
+        <v>60751200</v>
       </c>
       <c r="H46" s="3">
-        <v>53940800</v>
+        <v>56483300</v>
       </c>
       <c r="I46" s="3">
-        <v>52662800</v>
+        <v>52787400</v>
       </c>
       <c r="J46" s="3">
+        <v>51536800</v>
+      </c>
+      <c r="K46" s="3">
         <v>58487100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61674300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41316200</v>
+        <v>21793100</v>
       </c>
       <c r="E47" s="3">
-        <v>22425200</v>
+        <v>20934500</v>
       </c>
       <c r="F47" s="3">
-        <v>23930900</v>
+        <v>21945700</v>
       </c>
       <c r="G47" s="3">
-        <v>23976900</v>
+        <v>23419200</v>
       </c>
       <c r="H47" s="3">
-        <v>20680500</v>
+        <v>23464300</v>
       </c>
       <c r="I47" s="3">
-        <v>18226700</v>
+        <v>20238300</v>
       </c>
       <c r="J47" s="3">
+        <v>17837000</v>
+      </c>
+      <c r="K47" s="3">
         <v>31608700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17217400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25538700</v>
+        <v>13376900</v>
       </c>
       <c r="E48" s="3">
-        <v>12316100</v>
+        <v>12496300</v>
       </c>
       <c r="F48" s="3">
-        <v>11396100</v>
+        <v>12052700</v>
       </c>
       <c r="G48" s="3">
-        <v>11455500</v>
+        <v>11152400</v>
       </c>
       <c r="H48" s="3">
-        <v>10813700</v>
+        <v>11210600</v>
       </c>
       <c r="I48" s="3">
-        <v>11012300</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>10582500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>10776900</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12298000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>86337100</v>
+        <v>43876100</v>
       </c>
       <c r="E49" s="3">
-        <v>43569100</v>
+        <v>42245600</v>
       </c>
       <c r="F49" s="3">
-        <v>35792600</v>
+        <v>42637500</v>
       </c>
       <c r="G49" s="3">
-        <v>35054300</v>
+        <v>35027300</v>
       </c>
       <c r="H49" s="3">
-        <v>25068600</v>
+        <v>34304800</v>
       </c>
       <c r="I49" s="3">
-        <v>25738500</v>
+        <v>24532600</v>
       </c>
       <c r="J49" s="3">
+        <v>25188100</v>
+      </c>
+      <c r="K49" s="3">
         <v>48613600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23652300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1894,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1924,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6101400</v>
+        <v>8659900</v>
       </c>
       <c r="E52" s="3">
-        <v>6243900</v>
+        <v>5969800</v>
       </c>
       <c r="F52" s="3">
-        <v>7855100</v>
+        <v>6110400</v>
       </c>
       <c r="G52" s="3">
-        <v>6825100</v>
+        <v>7687100</v>
       </c>
       <c r="H52" s="3">
-        <v>7169500</v>
+        <v>6679100</v>
       </c>
       <c r="I52" s="3">
-        <v>6730800</v>
+        <v>7016200</v>
       </c>
       <c r="J52" s="3">
+        <v>6586900</v>
+      </c>
+      <c r="K52" s="3">
         <v>8293800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7519400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1984,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>155861000</v>
+        <v>164972000</v>
       </c>
       <c r="E54" s="3">
-        <v>152715000</v>
+        <v>152529000</v>
       </c>
       <c r="F54" s="3">
-        <v>141053000</v>
+        <v>149450000</v>
       </c>
       <c r="G54" s="3">
-        <v>135029000</v>
+        <v>138037000</v>
       </c>
       <c r="H54" s="3">
-        <v>117673000</v>
+        <v>132142000</v>
       </c>
       <c r="I54" s="3">
-        <v>114371000</v>
+        <v>115157000</v>
       </c>
       <c r="J54" s="3">
+        <v>111926000</v>
+      </c>
+      <c r="K54" s="3">
         <v>121457000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>122362000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2029,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2043,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12023200</v>
+        <v>12527100</v>
       </c>
       <c r="E57" s="3">
-        <v>10946100</v>
+        <v>11766200</v>
       </c>
       <c r="F57" s="3">
-        <v>9029800</v>
+        <v>10712100</v>
       </c>
       <c r="G57" s="3">
-        <v>8722400</v>
+        <v>8836700</v>
       </c>
       <c r="H57" s="3">
-        <v>8520400</v>
+        <v>8535900</v>
       </c>
       <c r="I57" s="3">
-        <v>8526000</v>
+        <v>8338200</v>
       </c>
       <c r="J57" s="3">
+        <v>8343700</v>
+      </c>
+      <c r="K57" s="3">
         <v>9016300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9011300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11347800</v>
+        <v>6625300</v>
       </c>
       <c r="E58" s="3">
-        <v>6111500</v>
+        <v>5552600</v>
       </c>
       <c r="F58" s="3">
-        <v>6963100</v>
+        <v>5980800</v>
       </c>
       <c r="G58" s="3">
-        <v>3342400</v>
+        <v>6814200</v>
       </c>
       <c r="H58" s="3">
-        <v>1817600</v>
+        <v>3270900</v>
       </c>
       <c r="I58" s="3">
-        <v>2181100</v>
+        <v>1778800</v>
       </c>
       <c r="J58" s="3">
+        <v>2134500</v>
+      </c>
+      <c r="K58" s="3">
         <v>8585500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4296100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46247300</v>
+        <v>36541400</v>
       </c>
       <c r="E59" s="3">
-        <v>46151900</v>
+        <v>35246900</v>
       </c>
       <c r="F59" s="3">
-        <v>32158500</v>
+        <v>45165100</v>
       </c>
       <c r="G59" s="3">
-        <v>32323400</v>
+        <v>31470900</v>
       </c>
       <c r="H59" s="3">
-        <v>30724600</v>
+        <v>31632300</v>
       </c>
       <c r="I59" s="3">
-        <v>31780400</v>
+        <v>30067600</v>
       </c>
       <c r="J59" s="3">
+        <v>31100900</v>
+      </c>
+      <c r="K59" s="3">
         <v>61412100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38177000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53714100</v>
+        <v>55693900</v>
       </c>
       <c r="E60" s="3">
-        <v>51697900</v>
+        <v>52565700</v>
       </c>
       <c r="F60" s="3">
-        <v>48151300</v>
+        <v>50592500</v>
       </c>
       <c r="G60" s="3">
-        <v>44388200</v>
+        <v>47121800</v>
       </c>
       <c r="H60" s="3">
-        <v>41062600</v>
+        <v>43439100</v>
       </c>
       <c r="I60" s="3">
-        <v>42487500</v>
+        <v>40184600</v>
       </c>
       <c r="J60" s="3">
+        <v>41579100</v>
+      </c>
+      <c r="K60" s="3">
         <v>47827100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51131200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30428400</v>
+        <v>33394600</v>
       </c>
       <c r="E61" s="3">
-        <v>30043500</v>
+        <v>29777800</v>
       </c>
       <c r="F61" s="3">
-        <v>29062900</v>
+        <v>29401100</v>
       </c>
       <c r="G61" s="3">
-        <v>31581800</v>
+        <v>28441500</v>
       </c>
       <c r="H61" s="3">
-        <v>21683600</v>
+        <v>30906500</v>
       </c>
       <c r="I61" s="3">
-        <v>20766900</v>
+        <v>21219900</v>
       </c>
       <c r="J61" s="3">
+        <v>20322900</v>
+      </c>
+      <c r="K61" s="3">
         <v>18939200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16762000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22541900</v>
+        <v>19903400</v>
       </c>
       <c r="E62" s="3">
-        <v>20910500</v>
+        <v>17430800</v>
       </c>
       <c r="F62" s="3">
-        <v>24775800</v>
+        <v>20463400</v>
       </c>
       <c r="G62" s="3">
-        <v>19726800</v>
+        <v>24246000</v>
       </c>
       <c r="H62" s="3">
-        <v>19568600</v>
+        <v>19305000</v>
       </c>
       <c r="I62" s="3">
-        <v>18999800</v>
+        <v>19150200</v>
       </c>
       <c r="J62" s="3">
+        <v>18593500</v>
+      </c>
+      <c r="K62" s="3">
         <v>23817600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17001500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2252,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2282,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2312,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>104841000</v>
+        <v>112130000</v>
       </c>
       <c r="E66" s="3">
-        <v>104267000</v>
+        <v>102599000</v>
       </c>
       <c r="F66" s="3">
-        <v>102669000</v>
+        <v>102037000</v>
       </c>
       <c r="G66" s="3">
-        <v>96348600</v>
+        <v>100474000</v>
       </c>
       <c r="H66" s="3">
-        <v>82943100</v>
+        <v>94288600</v>
       </c>
       <c r="I66" s="3">
-        <v>82830900</v>
+        <v>81169700</v>
       </c>
       <c r="J66" s="3">
+        <v>81059900</v>
+      </c>
+      <c r="K66" s="3">
         <v>86837500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>85351200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2357,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2386,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2416,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2446,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2476,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>46017300</v>
+        <v>45916200</v>
       </c>
       <c r="E72" s="3">
-        <v>40160500</v>
+        <v>45033400</v>
       </c>
       <c r="F72" s="3">
-        <v>30803100</v>
+        <v>39301800</v>
       </c>
       <c r="G72" s="3">
-        <v>33830200</v>
+        <v>30144500</v>
       </c>
       <c r="H72" s="3">
-        <v>28867700</v>
+        <v>33106900</v>
       </c>
       <c r="I72" s="3">
-        <v>25427700</v>
+        <v>28250400</v>
       </c>
       <c r="J72" s="3">
+        <v>24884000</v>
+      </c>
+      <c r="K72" s="3">
         <v>25667800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30379400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2536,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2566,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2596,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51020300</v>
+        <v>52842300</v>
       </c>
       <c r="E76" s="3">
-        <v>48448700</v>
+        <v>49929400</v>
       </c>
       <c r="F76" s="3">
-        <v>38384400</v>
+        <v>47412700</v>
       </c>
       <c r="G76" s="3">
-        <v>38680600</v>
+        <v>37563700</v>
       </c>
       <c r="H76" s="3">
-        <v>34730100</v>
+        <v>37853600</v>
       </c>
       <c r="I76" s="3">
-        <v>31539100</v>
+        <v>33987500</v>
       </c>
       <c r="J76" s="3">
+        <v>30864800</v>
+      </c>
+      <c r="K76" s="3">
         <v>34619000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37010200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2656,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42643</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42277</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41912</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41547</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41182</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40816</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6515400</v>
+        <v>5681100</v>
       </c>
       <c r="E81" s="3">
-        <v>6688200</v>
+        <v>6376100</v>
       </c>
       <c r="F81" s="3">
-        <v>6114800</v>
+        <v>6545200</v>
       </c>
       <c r="G81" s="3">
-        <v>8170300</v>
+        <v>5984100</v>
       </c>
       <c r="H81" s="3">
-        <v>6028500</v>
+        <v>7995600</v>
       </c>
       <c r="I81" s="3">
-        <v>4806600</v>
+        <v>5899600</v>
       </c>
       <c r="J81" s="3">
+        <v>4703800</v>
+      </c>
+      <c r="K81" s="3">
         <v>4657400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7213100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2736,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3836100</v>
+        <v>3836400</v>
       </c>
       <c r="E83" s="3">
-        <v>3602700</v>
+        <v>3754100</v>
       </c>
       <c r="F83" s="3">
-        <v>3101200</v>
+        <v>3525700</v>
       </c>
       <c r="G83" s="3">
-        <v>2860000</v>
+        <v>3034900</v>
       </c>
       <c r="H83" s="3">
-        <v>2705100</v>
+        <v>2798800</v>
       </c>
       <c r="I83" s="3">
-        <v>2944100</v>
+        <v>2647300</v>
       </c>
       <c r="J83" s="3">
+        <v>2881200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3161800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2860600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2795,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2825,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2855,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2885,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2915,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9453900</v>
+        <v>9284700</v>
       </c>
       <c r="E89" s="3">
-        <v>8051400</v>
+        <v>9251700</v>
       </c>
       <c r="F89" s="3">
-        <v>8539500</v>
+        <v>7879200</v>
       </c>
       <c r="G89" s="3">
-        <v>7417500</v>
+        <v>8356900</v>
       </c>
       <c r="H89" s="3">
-        <v>7966100</v>
+        <v>7258900</v>
       </c>
       <c r="I89" s="3">
-        <v>7700200</v>
+        <v>7795800</v>
       </c>
       <c r="J89" s="3">
+        <v>7535600</v>
+      </c>
+      <c r="K89" s="3">
         <v>7978500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9117000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2960,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2919400</v>
+        <v>-2865800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2699500</v>
+        <v>-2857000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2395400</v>
+        <v>-2641800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2128400</v>
+        <v>-2344200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2054400</v>
+        <v>-2082900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2097000</v>
+        <v>-2010400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2052200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2462800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2539000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3019,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3049,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4234400</v>
+        <v>-5502100</v>
       </c>
       <c r="E94" s="3">
-        <v>-8366700</v>
+        <v>-4143900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4649500</v>
+        <v>-8187800</v>
       </c>
       <c r="G94" s="3">
-        <v>-6537800</v>
+        <v>-4550100</v>
       </c>
       <c r="H94" s="3">
-        <v>-4517100</v>
+        <v>-6398000</v>
       </c>
       <c r="I94" s="3">
-        <v>-5695200</v>
+        <v>-4420500</v>
       </c>
       <c r="J94" s="3">
+        <v>-5573400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6378500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4746900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3094,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3378300</v>
+        <v>-3359900</v>
       </c>
       <c r="E96" s="3">
-        <v>-3269500</v>
+        <v>-3306100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3171900</v>
+        <v>-3199600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3060800</v>
+        <v>-3104000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2842000</v>
+        <v>-2995300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2836400</v>
+        <v>-2781200</v>
       </c>
       <c r="J96" s="3">
+        <v>-2775700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2949700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2765500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3153,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3183,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3213,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2183400</v>
+        <v>-2500100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1750300</v>
+        <v>-2136700</v>
       </c>
       <c r="F100" s="3">
-        <v>-3040600</v>
+        <v>-1712900</v>
       </c>
       <c r="G100" s="3">
-        <v>1184800</v>
+        <v>-2975600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5034400</v>
+        <v>1159500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3810300</v>
+        <v>-4926700</v>
       </c>
       <c r="J100" s="3">
+        <v>-3728800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3427700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6389000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32500</v>
+        <v>172400</v>
       </c>
       <c r="E101" s="3">
-        <v>-434200</v>
+        <v>-31800</v>
       </c>
       <c r="F101" s="3">
-        <v>-110000</v>
+        <v>-424900</v>
       </c>
       <c r="G101" s="3">
-        <v>93100</v>
+        <v>-107600</v>
       </c>
       <c r="H101" s="3">
-        <v>240100</v>
+        <v>91100</v>
       </c>
       <c r="I101" s="3">
-        <v>-121200</v>
+        <v>235000</v>
       </c>
       <c r="J101" s="3">
+        <v>-118600</v>
+      </c>
+      <c r="K101" s="3">
         <v>76300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3003600</v>
+        <v>1454900</v>
       </c>
       <c r="E102" s="3">
-        <v>-2499800</v>
+        <v>2939300</v>
       </c>
       <c r="F102" s="3">
-        <v>739400</v>
+        <v>-2446300</v>
       </c>
       <c r="G102" s="3">
-        <v>2157600</v>
+        <v>723600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1345300</v>
+        <v>2111500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1926500</v>
+        <v>-1316500</v>
       </c>
       <c r="J102" s="3">
+        <v>-1885300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1751400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2013100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
